--- a/DD-HPI-AF/Test-data/Test_data_AF.xlsx
+++ b/DD-HPI-AF/Test-data/Test_data_AF.xlsx
@@ -12,6 +12,7 @@
     <sheet name="ProductName" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
+  <oleSize ref="A1:L4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,12 +22,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ProductNo</t>
   </si>
   <si>
     <t>H6N52AA</t>
+  </si>
+  <si>
+    <t>SerialNo</t>
+  </si>
+  <si>
+    <t>4CS34503K1</t>
   </si>
 </sst>
 </file>
@@ -351,20 +358,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -376,12 +381,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/DD-HPI-AF/Test-data/Test_data_AF.xlsx
+++ b/DD-HPI-AF/Test-data/Test_data_AF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="1830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13410" windowHeight="5175" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProductNo" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="ProductName" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
-  <oleSize ref="A1:L4"/>
+  <oleSize ref="A1:L16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ProductNo</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>4CS34503K1</t>
+  </si>
+  <si>
+    <t>HP ENVY Recline 23-k001hk TouchSmart All-in-One Desktop PC (ENERGY STAR)</t>
+  </si>
+  <si>
+    <t>ProductName</t>
   </si>
 </sst>
 </file>
@@ -360,7 +366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -409,14 +415,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="63.46484375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DD-HPI-AF/Test-data/Test_data_AF.xlsx
+++ b/DD-HPI-AF/Test-data/Test_data_AF.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13410" windowHeight="5175" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9675" windowHeight="5175" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ProductNo" sheetId="1" r:id="rId1"/>
     <sheet name="SerialNo" sheetId="2" r:id="rId2"/>
     <sheet name="ProductName" sheetId="3" r:id="rId3"/>
+    <sheet name="PN_SN" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
-  <oleSize ref="A1:L16"/>
+  <oleSize ref="A1:I16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>ProductNo</t>
   </si>
@@ -40,6 +41,12 @@
   </si>
   <si>
     <t>ProductName</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>SN</t>
   </si>
 </sst>
 </file>
@@ -366,7 +373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -417,7 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -437,4 +446,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DD-HPI-AF/Test-data/Test_data_AF.xlsx
+++ b/DD-HPI-AF/Test-data/Test_data_AF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9675" windowHeight="5175" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14085" windowHeight="5175" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ProductNo" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="PN_SN" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
-  <oleSize ref="A1:I16"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>ProductNo</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>SN</t>
+  </si>
+  <si>
+    <t>4CS34yuyu565</t>
   </si>
 </sst>
 </file>
@@ -371,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -379,12 +382,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -450,13 +453,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -474,7 +480,16 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DD-HPI-AF/Test-data/Test_data_AF.xlsx
+++ b/DD-HPI-AF/Test-data/Test_data_AF.xlsx
@@ -4,16 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14085" windowHeight="5175" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9675" windowHeight="5175"/>
   </bookViews>
   <sheets>
-    <sheet name="ProductNo" sheetId="1" r:id="rId1"/>
-    <sheet name="SerialNo" sheetId="2" r:id="rId2"/>
-    <sheet name="ProductName" sheetId="3" r:id="rId3"/>
-    <sheet name="PN_SN" sheetId="4" r:id="rId4"/>
+    <sheet name="PN_SN" sheetId="4" r:id="rId1"/>
+    <sheet name="ProductNo" sheetId="1" r:id="rId2"/>
+    <sheet name="SerialNo" sheetId="2" r:id="rId3"/>
+    <sheet name="ProductName" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,33 +22,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t>ProductNo</t>
-  </si>
-  <si>
-    <t>H6N52AA</t>
   </si>
   <si>
     <t>SerialNo</t>
   </si>
   <si>
-    <t>4CS34503K1</t>
-  </si>
-  <si>
-    <t>HP ENVY Recline 23-k001hk TouchSmart All-in-One Desktop PC (ENERGY STAR)</t>
-  </si>
-  <si>
     <t>ProductName</t>
   </si>
   <si>
-    <t>PN</t>
+    <t>J9V90A</t>
   </si>
   <si>
-    <t>SN</t>
+    <t>HP DeskJet 3755 All-in-One Printer</t>
   </si>
   <si>
-    <t>4CS34yuyu565</t>
+    <t>CN66G2D2B1</t>
   </si>
 </sst>
 </file>
@@ -79,7 +69,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,13 +77,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,6 +381,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -389,7 +450,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -397,7 +458,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -407,7 +494,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
@@ -417,79 +504,10 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="63.46484375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>